--- a/biology/Médecine/Eurotransplant/Eurotransplant.xlsx
+++ b/biology/Médecine/Eurotransplant/Eurotransplant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurotransplant est une organisation internationale à but non lucratif responsable de la promotion et de coordination des transplantations d'organes dans huit États européens : l'Allemagne, l’Autriche, la Belgique, la Croatie, la Hongrie, le Luxembourg, les Pays-Bas et la Slovénie, ce qui correspond à une zone de 135 millions d'habitants[1]. L'organisation a été créée en 1967 par Jon van Rood (en) et légalement fondée le 12 mai 1969[2],[3]. Le siège social est basé à Leyde (Pays-Bas)[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurotransplant est une organisation internationale à but non lucratif responsable de la promotion et de coordination des transplantations d'organes dans huit États européens : l'Allemagne, l’Autriche, la Belgique, la Croatie, la Hongrie, le Luxembourg, les Pays-Bas et la Slovénie, ce qui correspond à une zone de 135 millions d'habitants. L'organisation a été créée en 1967 par Jon van Rood (en) et légalement fondée le 12 mai 1969,. Le siège social est basé à Leyde (Pays-Bas).
 L'organisation est comparable à Scandiatransplant en Scandinavie (le Danemark, la Finlande, l'Islande, la Norvège et la Suède), ainsi qu'à Balttransplant pour les pays baltes (l'Estonie, la Lettonie et la Lituanie).
 </t>
         </is>
